--- a/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>144</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>32</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>64</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>144</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>192</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>224</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>64</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>608</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>16</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>256</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>592</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>240</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>560</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>688</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>880</v>

--- a/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -589,7 +590,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -631,6 +632,355 @@
       </c>
       <c r="B6" t="n">
         <v>880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-127.3428001494996</v>
+      </c>
+      <c r="D2" t="n">
+        <v>334.9201899103673</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>104</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-123.434490089254</v>
+      </c>
+      <c r="D3" t="n">
+        <v>363.3806657282719</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-117.9715691109359</v>
+      </c>
+      <c r="D4" t="n">
+        <v>348.4687526312036</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>122</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-122.9410330464104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>372.4807312388508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-106.0614382893155</v>
+      </c>
+      <c r="D6" t="n">
+        <v>365.3147158610375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-85.1111986912761</v>
+      </c>
+      <c r="D7" t="n">
+        <v>387.8765943828211</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>185</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-55.47389235347871</v>
+      </c>
+      <c r="D8" t="n">
+        <v>422.8973932271363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-22.19911263794116</v>
+      </c>
+      <c r="D9" t="n">
+        <v>428.6410866486146</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>207</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-24.65590321279046</v>
+      </c>
+      <c r="D10" t="n">
+        <v>443.8989127549382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-10.43303189965272</v>
+      </c>
+      <c r="D11" t="n">
+        <v>450.813325808946</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>219</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.68418044822339</v>
+      </c>
+      <c r="D12" t="n">
+        <v>469.3489422657867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-7.570189217888969</v>
+      </c>
+      <c r="D13" t="n">
+        <v>458.9419160700058</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>230</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.320195432278322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>464.9863102379774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>236</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-10.43579987481106</v>
+      </c>
+      <c r="D15" t="n">
+        <v>465.2050951774054</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>242</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.521435943177874</v>
+      </c>
+      <c r="D16" t="n">
+        <v>476.4655427390982</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>247</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.37155562017537</v>
+      </c>
+      <c r="D17" t="n">
+        <v>483.3903579090415</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>253</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23.25898669137521</v>
+      </c>
+      <c r="D18" t="n">
+        <v>480.3972292059281</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>259</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.55134733413933</v>
+      </c>
+      <c r="D19" t="n">
+        <v>490.1622139695514</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>265</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34.60993271631352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>512.1994345425774</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>270</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.62722474092234</v>
+      </c>
+      <c r="D21" t="n">
+        <v>496.5629107741404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>276</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.93021460266859</v>
+      </c>
+      <c r="D22" t="n">
+        <v>509.4950351772831</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>282</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.56006347362266</v>
+      </c>
+      <c r="D23" t="n">
+        <v>526.4085266717534</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2RL4PT6_po_data.xlsx
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,16 +664,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -682,12 +672,6 @@
       <c r="B2" t="n">
         <v>99</v>
       </c>
-      <c r="C2" t="n">
-        <v>-127.3428001494996</v>
-      </c>
-      <c r="D2" t="n">
-        <v>334.9201899103673</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -696,12 +680,6 @@
       <c r="B3" t="n">
         <v>104</v>
       </c>
-      <c r="C3" t="n">
-        <v>-123.434490089254</v>
-      </c>
-      <c r="D3" t="n">
-        <v>363.3806657282719</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -710,12 +688,6 @@
       <c r="B4" t="n">
         <v>116</v>
       </c>
-      <c r="C4" t="n">
-        <v>-117.9715691109359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>348.4687526312036</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -724,12 +696,6 @@
       <c r="B5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>-122.9410330464104</v>
-      </c>
-      <c r="D5" t="n">
-        <v>372.4807312388508</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -738,12 +704,6 @@
       <c r="B6" t="n">
         <v>127</v>
       </c>
-      <c r="C6" t="n">
-        <v>-106.0614382893155</v>
-      </c>
-      <c r="D6" t="n">
-        <v>365.3147158610375</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -752,12 +712,6 @@
       <c r="B7" t="n">
         <v>133</v>
       </c>
-      <c r="C7" t="n">
-        <v>-85.1111986912761</v>
-      </c>
-      <c r="D7" t="n">
-        <v>387.8765943828211</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -766,12 +720,6 @@
       <c r="B8" t="n">
         <v>185</v>
       </c>
-      <c r="C8" t="n">
-        <v>-55.47389235347871</v>
-      </c>
-      <c r="D8" t="n">
-        <v>422.8973932271363</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -780,12 +728,6 @@
       <c r="B9" t="n">
         <v>202</v>
       </c>
-      <c r="C9" t="n">
-        <v>-22.19911263794116</v>
-      </c>
-      <c r="D9" t="n">
-        <v>428.6410866486146</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -794,12 +736,6 @@
       <c r="B10" t="n">
         <v>207</v>
       </c>
-      <c r="C10" t="n">
-        <v>-24.65590321279046</v>
-      </c>
-      <c r="D10" t="n">
-        <v>443.8989127549382</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,12 +744,6 @@
       <c r="B11" t="n">
         <v>213</v>
       </c>
-      <c r="C11" t="n">
-        <v>-10.43303189965272</v>
-      </c>
-      <c r="D11" t="n">
-        <v>450.813325808946</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -822,12 +752,6 @@
       <c r="B12" t="n">
         <v>219</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.68418044822339</v>
-      </c>
-      <c r="D12" t="n">
-        <v>469.3489422657867</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -836,12 +760,6 @@
       <c r="B13" t="n">
         <v>225</v>
       </c>
-      <c r="C13" t="n">
-        <v>-7.570189217888969</v>
-      </c>
-      <c r="D13" t="n">
-        <v>458.9419160700058</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -850,12 +768,6 @@
       <c r="B14" t="n">
         <v>230</v>
       </c>
-      <c r="C14" t="n">
-        <v>-5.320195432278322</v>
-      </c>
-      <c r="D14" t="n">
-        <v>464.9863102379774</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -864,12 +776,6 @@
       <c r="B15" t="n">
         <v>236</v>
       </c>
-      <c r="C15" t="n">
-        <v>-10.43579987481106</v>
-      </c>
-      <c r="D15" t="n">
-        <v>465.2050951774054</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -878,12 +784,6 @@
       <c r="B16" t="n">
         <v>242</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.521435943177874</v>
-      </c>
-      <c r="D16" t="n">
-        <v>476.4655427390982</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -892,12 +792,6 @@
       <c r="B17" t="n">
         <v>247</v>
       </c>
-      <c r="C17" t="n">
-        <v>16.37155562017537</v>
-      </c>
-      <c r="D17" t="n">
-        <v>483.3903579090415</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -906,12 +800,6 @@
       <c r="B18" t="n">
         <v>253</v>
       </c>
-      <c r="C18" t="n">
-        <v>23.25898669137521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>480.3972292059281</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -920,12 +808,6 @@
       <c r="B19" t="n">
         <v>259</v>
       </c>
-      <c r="C19" t="n">
-        <v>19.55134733413933</v>
-      </c>
-      <c r="D19" t="n">
-        <v>490.1622139695514</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -934,12 +816,6 @@
       <c r="B20" t="n">
         <v>265</v>
       </c>
-      <c r="C20" t="n">
-        <v>34.60993271631352</v>
-      </c>
-      <c r="D20" t="n">
-        <v>512.1994345425774</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -948,12 +824,6 @@
       <c r="B21" t="n">
         <v>270</v>
       </c>
-      <c r="C21" t="n">
-        <v>15.62722474092234</v>
-      </c>
-      <c r="D21" t="n">
-        <v>496.5629107741404</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -962,12 +832,6 @@
       <c r="B22" t="n">
         <v>276</v>
       </c>
-      <c r="C22" t="n">
-        <v>52.93021460266859</v>
-      </c>
-      <c r="D22" t="n">
-        <v>509.4950351772831</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -975,12 +839,6 @@
       </c>
       <c r="B23" t="n">
         <v>282</v>
-      </c>
-      <c r="C23" t="n">
-        <v>48.56006347362266</v>
-      </c>
-      <c r="D23" t="n">
-        <v>526.4085266717534</v>
       </c>
     </row>
   </sheetData>
